--- a/MVFI/REGION.xlsx
+++ b/MVFI/REGION.xlsx
@@ -622,13 +622,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.6328125" bestFit="1" customWidth="1"/>
